--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeidaradumihai/Desktop/Noroff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeidaradumihai/Desktop/Noroff/Project-Lofthus-Frukt-og-Salt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7272116A-6D7A-7E49-AC17-E1E38A8DA44A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8EF88-5A4F-1349-9D08-9BB8E6DE6010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13820" xr2:uid="{978A4103-1D14-554C-8ABD-23B39127353F}"/>
   </bookViews>
@@ -31,9 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
   <si>
     <t>Project Planner</t>
+  </si>
+  <si>
+    <t>Task 1</t>
   </si>
 </sst>
 </file>
@@ -391,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A703CFC-DBCD-6F4C-95A0-C5AF82518941}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -407,6 +410,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gantt_chart.xlsx
+++ b/gantt_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeidaradumihai/Desktop/Noroff/Project-Lofthus-Frukt-og-Salt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8EF88-5A4F-1349-9D08-9BB8E6DE6010}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19116911-4A52-094C-8CE3-80AF5EB5BC6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13820" xr2:uid="{978A4103-1D14-554C-8ABD-23B39127353F}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -56,13 +56,38 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -77,9 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A703CFC-DBCD-6F4C-95A0-C5AF82518941}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="177" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -405,57 +433,66 @@
     <col min="1" max="1" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="43" customHeight="1">
+    <row r="1" spans="1:8" ht="43" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>1</v>
       </c>
